--- a/cases/ROG_15/tasks.xlsx
+++ b/cases/ROG_15/tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\autotest\cases\cases\ROG_15\tasks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\GIT\poltsh_ref\cases\ROG_15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C88DE6-EBAC-4A3A-A849-83D8B5C5539D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1271C43-30D5-4662-B1FF-353C2E358811}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{05991635-A5E8-4039-8DF1-2F3EEE66E9A0}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
